--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software\python\workground\tweet_sentiment_extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C0D3F1-35DB-4C2F-905D-E7BFA9FC93BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD096A8-5CE1-41CF-AF4C-E6780F069ECF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CFBD6B1C-90EE-407F-934E-9DA405374D61}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>bert_case</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,7 +61,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>use sentiment word frequency + learing rate decay:</t>
+    <t>use sentiment word frequency + word counts:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use sentiment word frequency + learning rate decay:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A312599-9CE1-4A90-98DB-8FC6E4291EC3}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -497,6 +501,9 @@
       <c r="C6">
         <v>0.62581571309360295</v>
       </c>
+      <c r="D6">
+        <v>0.70199999999999996</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
@@ -516,7 +523,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -542,6 +549,48 @@
       </c>
       <c r="C12">
         <v>0.62536166837874496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.61737329228550897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0.62109860854033605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0.62598893967624802</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>0.60709525571029099</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>0.627169190381766</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>0.61413615973564695</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software\python\workground\tweet_sentiment_extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD096A8-5CE1-41CF-AF4C-E6780F069ECF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857FE165-59E0-438F-9356-F0E6EC42A08E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CFBD6B1C-90EE-407F-934E-9DA405374D61}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>bert_case</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,14 @@
   </si>
   <si>
     <t>use sentiment word frequency + learning rate decay:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roberta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roberta + 5-fold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A312599-9CE1-4A90-98DB-8FC6E4291EC3}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -578,19 +586,99 @@
         <v>0.62598893967624802</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
       <c r="C18">
         <v>0.60709525571029099</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
       <c r="C19">
         <v>0.627169190381766</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
       <c r="C20">
         <v>0.61413615973564695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0.585037947408517</v>
+      </c>
+      <c r="D22">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>0.59100275320776396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>0.59070047944792203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0.585037947408517</v>
+      </c>
+      <c r="D26">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>0.59100275320776396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>0.59070047944792203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0.59147000000000005</v>
+      </c>
+      <c r="D30">
+        <v>0.65300000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software\python\workground\tweet_sentiment_extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857FE165-59E0-438F-9356-F0E6EC42A08E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6932CE5-BE76-4390-97A6-08E2E3C46012}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CFBD6B1C-90EE-407F-934E-9DA405374D61}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>bert_case</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,30 @@
   </si>
   <si>
     <t>roberta + 5-fold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roberta + 4-fold（使用别人的分词工具）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bert + 4-fold（使用别人的分词工具）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bert + 4-fold（使用别人的分词工具）+ conv1d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,11 +153,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -450,15 +477,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A312599-9CE1-4A90-98DB-8FC6E4291EC3}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -586,7 +613,7 @@
         <v>0.62598893967624802</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -594,7 +621,7 @@
         <v>0.60709525571029099</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>2</v>
       </c>
@@ -602,7 +629,7 @@
         <v>0.627169190381766</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>3</v>
       </c>
@@ -610,7 +637,7 @@
         <v>0.61413615973564695</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -624,7 +651,7 @@
         <v>0.621</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>2</v>
       </c>
@@ -632,7 +659,7 @@
         <v>0.59100275320776396</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>3</v>
       </c>
@@ -640,7 +667,7 @@
         <v>0.59070047944792203</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -654,7 +681,7 @@
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>2</v>
       </c>
@@ -662,7 +689,7 @@
         <v>0.59100275320776396</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -670,7 +697,7 @@
         <v>0.59070047944792203</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>1</v>
       </c>
@@ -679,6 +706,109 @@
       </c>
       <c r="D30">
         <v>0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>0.60956399999999999</v>
+      </c>
+      <c r="E33">
+        <v>0.62688299999999997</v>
+      </c>
+      <c r="F33">
+        <v>0.64128700000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>0.611931</v>
+      </c>
+      <c r="E34">
+        <v>0.63430699999999995</v>
+      </c>
+      <c r="F34">
+        <v>0.64210400000000001</v>
+      </c>
+      <c r="G34">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C36">
+        <v>50</v>
+      </c>
+      <c r="D36">
+        <v>0.67882799999999999</v>
+      </c>
+      <c r="E36">
+        <v>0.68640699999999999</v>
+      </c>
+      <c r="F36">
+        <v>0.68606199999999995</v>
+      </c>
+      <c r="G36">
+        <v>0.69899999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C37">
+        <v>50</v>
+      </c>
+      <c r="D37">
+        <v>0.69006100000000004</v>
+      </c>
+      <c r="E37">
+        <v>0.69652899999999995</v>
+      </c>
+      <c r="F37">
+        <v>0.69332499999999997</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software\python\workground\tweet_sentiment_extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6932CE5-BE76-4390-97A6-08E2E3C46012}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C847D8EB-71C3-484F-B90D-6E181E6C1612}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CFBD6B1C-90EE-407F-934E-9DA405374D61}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>bert_case</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,46 @@
   </si>
   <si>
     <t>bert + 4-fold（使用别人的分词工具）+ conv1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bert + 5-fold（使用别人的分词工具）+ conv1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别人模型（roberta）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roberta + 5-fold（使用别人的分词工具）+ conv1d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roberta + 5-fold（使用别人的分词工具）+ conv1d + train_process.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qrs_suu_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A312599-9CE1-4A90-98DB-8FC6E4291EC3}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -709,26 +749,26 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -748,7 +788,7 @@
         <v>0.64128700000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>4.0000000000000003E-5</v>
       </c>
@@ -768,7 +808,7 @@
         <v>0.65200000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -791,7 +831,7 @@
         <v>0.69899999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -809,6 +849,208 @@
       </c>
       <c r="F37">
         <v>0.69332499999999997</v>
+      </c>
+      <c r="G37">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C38">
+        <v>64</v>
+      </c>
+      <c r="D38">
+        <v>0.68664099999999995</v>
+      </c>
+      <c r="E38">
+        <v>0.69282100000000002</v>
+      </c>
+      <c r="F38">
+        <v>0.69465900000000003</v>
+      </c>
+      <c r="G38">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40">
+        <v>0.70164251291379998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C42">
+        <v>64</v>
+      </c>
+      <c r="D42">
+        <v>0.696434</v>
+      </c>
+      <c r="E42">
+        <v>0.69651600000000002</v>
+      </c>
+      <c r="F42">
+        <v>0.70036500000000002</v>
+      </c>
+      <c r="G42">
+        <v>0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C43">
+        <v>64</v>
+      </c>
+      <c r="D43">
+        <v>0.595279</v>
+      </c>
+      <c r="E43">
+        <v>0.620336</v>
+      </c>
+      <c r="G43">
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C46">
+        <v>32</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>0.69049700000000003</v>
+      </c>
+      <c r="F46">
+        <v>0.694492</v>
+      </c>
+      <c r="G46">
+        <v>0.69374000000000002</v>
+      </c>
+      <c r="H46">
+        <v>0.69695700000000005</v>
+      </c>
+      <c r="I46">
+        <v>0.68996599999999997</v>
+      </c>
+      <c r="J46" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46">
+        <v>0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C47">
+        <v>32</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>0.690747</v>
+      </c>
+      <c r="F47">
+        <v>0.67761000000000005</v>
+      </c>
+      <c r="G47">
+        <v>0.69856300000000005</v>
+      </c>
+      <c r="H47">
+        <v>0.68904200000000004</v>
+      </c>
+      <c r="I47">
+        <v>0.68918699999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C48">
+        <v>64</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>0.69300300000000004</v>
+      </c>
+      <c r="F48">
+        <v>0.69654099999999997</v>
+      </c>
+      <c r="G48">
+        <v>0.69696899999999995</v>
+      </c>
+      <c r="H48">
+        <v>0.69903700000000002</v>
+      </c>
+      <c r="I48">
+        <v>0.69485699999999995</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software\python\workground\tweet_sentiment_extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C847D8EB-71C3-484F-B90D-6E181E6C1612}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA717522-AE6A-4FD0-8E23-677E611406A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CFBD6B1C-90EE-407F-934E-9DA405374D61}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>bert_case</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,30 @@
   </si>
   <si>
     <t>roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roberta-large + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 3.分开neutral、postive + negative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 3.focal loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 3.focal loss 4.使用logit比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,13 +194,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -193,7 +231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -201,6 +239,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A312599-9CE1-4A90-98DB-8FC6E4291EC3}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1053,6 +1112,208 @@
         <v>0.69485699999999995</v>
       </c>
     </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C49">
+        <v>32</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>0.67965100000000001</v>
+      </c>
+      <c r="F49">
+        <v>0.69377299999999997</v>
+      </c>
+      <c r="G49">
+        <v>0.68747199999999997</v>
+      </c>
+      <c r="H49">
+        <v>0.68759999999999999</v>
+      </c>
+      <c r="I49">
+        <v>0.68715400000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="6">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C51" s="7">
+        <v>64</v>
+      </c>
+      <c r="D51" s="7">
+        <v>5</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.67642800000000003</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0.69160100000000002</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0.70302200000000004</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0.70055800000000001</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0.70146799999999998</v>
+      </c>
+      <c r="J51" s="7">
+        <f>AVERAGE(E51:I51)</f>
+        <v>0.69461539999999999</v>
+      </c>
+      <c r="K51" s="9">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C54">
+        <v>64</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>0.68259400000000003</v>
+      </c>
+      <c r="F54">
+        <v>0.69777100000000003</v>
+      </c>
+      <c r="G54">
+        <v>0.69530400000000003</v>
+      </c>
+      <c r="H54">
+        <v>0.69847700000000001</v>
+      </c>
+      <c r="I54">
+        <v>0.69914699999999996</v>
+      </c>
+      <c r="J54" s="4">
+        <f>AVERAGE(E54:I54)</f>
+        <v>0.69465860000000001</v>
+      </c>
+      <c r="K54" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="6">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C55" s="7">
+        <v>64</v>
+      </c>
+      <c r="D55" s="7">
+        <v>5</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0.68771899999999997</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0.69833299999999998</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0.70306299999999999</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0.70338900000000004</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0.69980299999999995</v>
+      </c>
+      <c r="J55" s="7">
+        <f>AVERAGE(E55:I55)</f>
+        <v>0.6984613999999999</v>
+      </c>
+      <c r="K55" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C56">
+        <v>64</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>0.69647199999999998</v>
+      </c>
+      <c r="F56">
+        <v>0.69698499999999997</v>
+      </c>
+      <c r="G56">
+        <v>0.69439399999999996</v>
+      </c>
+      <c r="H56">
+        <v>0.693102</v>
+      </c>
+      <c r="I56">
+        <v>0.69685900000000001</v>
+      </c>
+      <c r="J56">
+        <f>AVERAGE(E56:I56)</f>
+        <v>0.69556239999999991</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software\python\workground\tweet_sentiment_extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA717522-AE6A-4FD0-8E23-677E611406A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201D7A24-A71F-4A97-9266-31A68ACB797C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CFBD6B1C-90EE-407F-934E-9DA405374D61}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="42">
   <si>
     <t>bert_case</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,15 +153,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 3.focal loss 4.使用logit比较</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 3.focal loss 4.使用logit比较 5.使用label smoothing方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label_smoothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perturb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 3.focal loss 4.使用logit比较 5.使用label smoothing方法 6. adversial training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focal_r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 3.focal loss 4.使用logit比较 5. adversial training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 3.focal loss 4.使用logit比较 5.virtual adversial training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power_iterations</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +267,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -260,6 +296,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,15 +615,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A312599-9CE1-4A90-98DB-8FC6E4291EC3}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.75" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1112,7 +1152,7 @@
         <v>0.69485699999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>27</v>
       </c>
@@ -1141,7 +1181,7 @@
         <v>0.68715400000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>28</v>
       </c>
@@ -1177,7 +1217,7 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>11</v>
       </c>
@@ -1203,13 +1243,19 @@
         <v>22</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="42" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>29</v>
       </c>
@@ -1238,16 +1284,17 @@
         <v>0.69914699999999996</v>
       </c>
       <c r="J54" s="4">
-        <f>AVERAGE(E54:I54)</f>
+        <f t="shared" ref="J54:J59" si="0">AVERAGE(E54:I54)</f>
         <v>0.69465860000000001</v>
       </c>
       <c r="K54" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="1:14" s="7" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B55" s="6">
         <v>4.0000000000000003E-5</v>
@@ -1274,16 +1321,20 @@
         <v>0.69980299999999995</v>
       </c>
       <c r="J55" s="7">
-        <f>AVERAGE(E55:I55)</f>
+        <f t="shared" si="0"/>
         <v>0.6984613999999999</v>
       </c>
       <c r="K55" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+      <c r="L55" s="8"/>
+      <c r="M55" s="9">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="42" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B56" s="2">
         <v>4.0000000000000003E-5</v>
@@ -1310,8 +1361,980 @@
         <v>0.69685900000000001</v>
       </c>
       <c r="J56">
-        <f>AVERAGE(E56:I56)</f>
+        <f t="shared" si="0"/>
         <v>0.69556239999999991</v>
+      </c>
+      <c r="K56" s="4">
+        <v>2</v>
+      </c>
+      <c r="L56" s="4"/>
+      <c r="M56" s="10">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C57">
+        <v>64</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>0.68950199999999995</v>
+      </c>
+      <c r="F57">
+        <v>0.69417499999999999</v>
+      </c>
+      <c r="G57">
+        <v>0.70216400000000001</v>
+      </c>
+      <c r="H57">
+        <v>0.70240999999999998</v>
+      </c>
+      <c r="I57">
+        <v>0.70272100000000004</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>0.69819439999999999</v>
+      </c>
+      <c r="K57" s="4">
+        <v>1</v>
+      </c>
+      <c r="L57" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="M57">
+        <v>0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C58">
+        <v>64</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>0.68326600000000004</v>
+      </c>
+      <c r="F58">
+        <v>0.69256799999999996</v>
+      </c>
+      <c r="G58">
+        <v>0.69913499999999995</v>
+      </c>
+      <c r="H58">
+        <v>0.70030099999999995</v>
+      </c>
+      <c r="I58">
+        <v>0.69816800000000001</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>0.69468759999999996</v>
+      </c>
+      <c r="K58" s="4">
+        <v>1</v>
+      </c>
+      <c r="L58" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C59">
+        <v>64</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>0.68748600000000004</v>
+      </c>
+      <c r="F59">
+        <v>0.69452800000000003</v>
+      </c>
+      <c r="G59">
+        <v>0.69911500000000004</v>
+      </c>
+      <c r="H59">
+        <v>0.70081599999999999</v>
+      </c>
+      <c r="I59">
+        <v>0.69923000000000002</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>0.69623500000000005</v>
+      </c>
+      <c r="K59" s="4">
+        <v>1</v>
+      </c>
+      <c r="L59" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="56" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C62">
+        <v>64</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>0.69020300000000001</v>
+      </c>
+      <c r="F62">
+        <v>0.69511199999999995</v>
+      </c>
+      <c r="G62">
+        <v>0.69153200000000004</v>
+      </c>
+      <c r="H62">
+        <v>0.68888300000000002</v>
+      </c>
+      <c r="I62">
+        <v>0.68206800000000001</v>
+      </c>
+      <c r="J62">
+        <f>AVERAGE(E62:I62)</f>
+        <v>0.68955960000000005</v>
+      </c>
+      <c r="K62" s="4">
+        <v>1</v>
+      </c>
+      <c r="L62" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="M62">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="56" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C63">
+        <v>64</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>0.69326299999999996</v>
+      </c>
+      <c r="F63">
+        <v>0.70249600000000001</v>
+      </c>
+      <c r="G63">
+        <v>0.69438900000000003</v>
+      </c>
+      <c r="H63">
+        <v>0.69413599999999998</v>
+      </c>
+      <c r="I63">
+        <v>0.68732700000000002</v>
+      </c>
+      <c r="J63">
+        <f>AVERAGE(E63:I63)</f>
+        <v>0.6943222</v>
+      </c>
+      <c r="K63" s="4">
+        <v>1</v>
+      </c>
+      <c r="L63" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="M63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="56" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C64">
+        <v>64</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>0.69360999999999995</v>
+      </c>
+      <c r="F64" s="10">
+        <v>0.70433999999999997</v>
+      </c>
+      <c r="G64">
+        <v>0.69755299999999998</v>
+      </c>
+      <c r="H64">
+        <v>0.69559000000000004</v>
+      </c>
+      <c r="I64">
+        <v>0.68676599999999999</v>
+      </c>
+      <c r="J64">
+        <f>AVERAGE(E64:I64)</f>
+        <v>0.69557179999999996</v>
+      </c>
+      <c r="K64" s="4">
+        <v>1</v>
+      </c>
+      <c r="L64" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="M64">
+        <v>10</v>
+      </c>
+      <c r="N64">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="42" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C66">
+        <v>64</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>0.68936299999999995</v>
+      </c>
+      <c r="F66">
+        <v>0.697716</v>
+      </c>
+      <c r="G66">
+        <v>0.70020899999999997</v>
+      </c>
+      <c r="H66">
+        <v>0.697712</v>
+      </c>
+      <c r="I66">
+        <v>0.69113000000000002</v>
+      </c>
+      <c r="J66">
+        <f>AVERAGE(E66:I66)</f>
+        <v>0.69522600000000012</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M66">
+        <v>10</v>
+      </c>
+      <c r="N66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="42" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C67">
+        <v>64</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>0.694079</v>
+      </c>
+      <c r="F67">
+        <v>0.69750199999999996</v>
+      </c>
+      <c r="G67">
+        <v>0.69668399999999997</v>
+      </c>
+      <c r="H67">
+        <v>0.69051899999999999</v>
+      </c>
+      <c r="I67">
+        <v>0.68495600000000001</v>
+      </c>
+      <c r="J67">
+        <f>AVERAGE(E67:I67)</f>
+        <v>0.69274800000000003</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="42" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C68">
+        <v>64</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>0.69235999999999998</v>
+      </c>
+      <c r="F68">
+        <v>0.69953100000000001</v>
+      </c>
+      <c r="G68">
+        <v>0.69839200000000001</v>
+      </c>
+      <c r="H68">
+        <v>0.68848699999999996</v>
+      </c>
+      <c r="I68">
+        <v>0.68717300000000003</v>
+      </c>
+      <c r="J68">
+        <f>AVERAGE(E68:I68)</f>
+        <v>0.69318859999999993</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="42" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C70">
+        <v>64</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>0.686195</v>
+      </c>
+      <c r="F70">
+        <v>0.69446099999999999</v>
+      </c>
+      <c r="G70">
+        <v>0.68900799999999995</v>
+      </c>
+      <c r="H70">
+        <v>0.68540199999999996</v>
+      </c>
+      <c r="I70">
+        <v>0.68021299999999996</v>
+      </c>
+      <c r="J70">
+        <f>AVERAGE(E70:I70)</f>
+        <v>0.68705579999999988</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M70">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="42" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C71">
+        <v>64</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>0.68137999999999999</v>
+      </c>
+      <c r="F71">
+        <v>0.69903000000000004</v>
+      </c>
+      <c r="G71">
+        <v>0.69071800000000005</v>
+      </c>
+      <c r="H71">
+        <v>0.68752199999999997</v>
+      </c>
+      <c r="I71">
+        <v>0.68576199999999998</v>
+      </c>
+      <c r="J71">
+        <f>AVERAGE(E71:I71)</f>
+        <v>0.68888240000000001</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M71">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="42" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C72">
+        <v>64</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>0.685423</v>
+      </c>
+      <c r="F72" s="10">
+        <v>0.69633299999999998</v>
+      </c>
+      <c r="G72">
+        <v>0.69348600000000005</v>
+      </c>
+      <c r="H72">
+        <v>0.69070500000000001</v>
+      </c>
+      <c r="I72">
+        <v>0.68334600000000001</v>
+      </c>
+      <c r="J72">
+        <f>AVERAGE(E72:I72)</f>
+        <v>0.68985859999999999</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="42" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C73">
+        <v>64</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>0.68089299999999997</v>
+      </c>
+      <c r="F73">
+        <v>0.691465</v>
+      </c>
+      <c r="G73">
+        <v>0.69522300000000004</v>
+      </c>
+      <c r="H73">
+        <v>0.68810000000000004</v>
+      </c>
+      <c r="I73">
+        <v>0.67961000000000005</v>
+      </c>
+      <c r="J73">
+        <f>AVERAGE(E73:I73)</f>
+        <v>0.68705820000000006</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M73">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="42" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C74">
+        <v>64</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>0.68361099999999997</v>
+      </c>
+      <c r="F74">
+        <v>0.69530000000000003</v>
+      </c>
+      <c r="G74">
+        <v>0.69443900000000003</v>
+      </c>
+      <c r="H74">
+        <v>0.68903800000000004</v>
+      </c>
+      <c r="J74">
+        <f t="shared" ref="J74:J83" si="1">AVERAGE(E74:I74)</f>
+        <v>0.69059700000000002</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M74">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" s="3"/>
+      <c r="B75" s="2"/>
+      <c r="L75" s="4"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="3"/>
+      <c r="B76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="42" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C77">
+        <v>64</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>0.674875</v>
+      </c>
+      <c r="F77">
+        <v>0.692361</v>
+      </c>
+      <c r="G77">
+        <v>0.68781099999999995</v>
+      </c>
+      <c r="H77">
+        <v>0.68720999999999999</v>
+      </c>
+      <c r="I77">
+        <v>0.67982600000000004</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="1"/>
+        <v>0.68441659999999993</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M77">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B78" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C78">
+        <v>64</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <v>0.68097600000000003</v>
+      </c>
+      <c r="F78">
+        <v>0.68931299999999995</v>
+      </c>
+      <c r="G78">
+        <v>0.69509100000000001</v>
+      </c>
+      <c r="H78">
+        <v>0.68798300000000001</v>
+      </c>
+      <c r="I78">
+        <v>0.68332999999999999</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="1"/>
+        <v>0.68733860000000002</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M78">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B79" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C79">
+        <v>64</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79">
+        <v>0.696469</v>
+      </c>
+      <c r="F79">
+        <v>0.69649300000000003</v>
+      </c>
+      <c r="G79">
+        <v>0.692438</v>
+      </c>
+      <c r="H79">
+        <v>0.68565100000000001</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="1"/>
+        <v>0.69276274999999998</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B80" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C80">
+        <v>64</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>0.69191400000000003</v>
+      </c>
+      <c r="F80">
+        <v>0.69369199999999998</v>
+      </c>
+      <c r="G80">
+        <v>0.69496100000000005</v>
+      </c>
+      <c r="H80">
+        <v>0.68710599999999999</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="1"/>
+        <v>0.69191825000000007</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B81" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C81">
+        <v>64</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>0.68775900000000001</v>
+      </c>
+      <c r="F81">
+        <v>0.69498199999999999</v>
+      </c>
+      <c r="G81">
+        <v>0.695017</v>
+      </c>
+      <c r="H81">
+        <v>0.68614799999999998</v>
+      </c>
+      <c r="I81">
+        <v>0.68498700000000001</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="1"/>
+        <v>0.68977860000000013</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B82" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C82">
+        <v>64</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>0.68089100000000002</v>
+      </c>
+      <c r="F82">
+        <v>0.696662</v>
+      </c>
+      <c r="G82">
+        <v>0.69307799999999997</v>
+      </c>
+      <c r="H82">
+        <v>0.68537599999999999</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="1"/>
+        <v>0.68900175000000008</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M82">
+        <v>5</v>
+      </c>
+      <c r="N82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E83">
+        <v>0.68908499999999995</v>
+      </c>
+      <c r="F83">
+        <v>0.69184500000000004</v>
+      </c>
+      <c r="G83">
+        <v>0.69056300000000004</v>
+      </c>
+      <c r="H83">
+        <v>0.68593700000000002</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="1"/>
+        <v>0.68935750000000007</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M83">
+        <v>5</v>
+      </c>
+      <c r="N83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <v>0.68845699999999999</v>
+      </c>
+      <c r="F84">
+        <v>0.69806299999999999</v>
+      </c>
+      <c r="G84">
+        <v>0.69242499999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E86">
+        <v>0.71082800000000002</v>
+      </c>
+      <c r="F86">
+        <v>0.720441</v>
+      </c>
+      <c r="G86">
+        <v>0.71965900000000005</v>
+      </c>
+      <c r="H86">
+        <v>0.72213099999999997</v>
+      </c>
+      <c r="I86">
+        <v>0.72244399999999998</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software\python\workground\tweet_sentiment_extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201D7A24-A71F-4A97-9266-31A68ACB797C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F660D6-A95E-4790-939E-D5A14120852B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CFBD6B1C-90EE-407F-934E-9DA405374D61}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="47">
   <si>
     <t>bert_case</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,26 @@
   </si>
   <si>
     <t>power_iterations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 3.focal loss 4.使用logit比较 5.去除标点符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 3.focal loss 4.使用logit比较 5.去除空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 3.focal loss 4.使用logit比较 5.data argumentation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 3.focal loss 4.使用logit比较 5.data argumentation(使用了数据预处理)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 3.focal loss 4.使用logit比较 5.data argumentation(仅仅补充头部和尾部信息)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A312599-9CE1-4A90-98DB-8FC6E4291EC3}">
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2201,7 +2221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B81" s="2">
         <v>4.0000000000000003E-5</v>
       </c>
@@ -2240,7 +2260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B82" s="2">
         <v>4.0000000000000003E-5</v>
       </c>
@@ -2279,7 +2299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E83">
         <v>0.68908499999999995</v>
       </c>
@@ -2309,7 +2329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E84">
         <v>0.68845699999999999</v>
       </c>
@@ -2320,21 +2340,273 @@
         <v>0.69242499999999996</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C86">
+        <v>64</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
       <c r="E86">
-        <v>0.71082800000000002</v>
+        <v>0.64483199999999996</v>
       </c>
       <c r="F86">
-        <v>0.720441</v>
+        <v>0.65651300000000001</v>
       </c>
       <c r="G86">
-        <v>0.71965900000000005</v>
-      </c>
-      <c r="H86">
-        <v>0.72213099999999997</v>
-      </c>
-      <c r="I86">
-        <v>0.72244399999999998</v>
+        <v>0.65056899999999995</v>
+      </c>
+      <c r="J86">
+        <f t="shared" ref="J86:J91" si="2">AVERAGE(E86:I86)</f>
+        <v>0.65063799999999994</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M86">
+        <v>0.66300000000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C87">
+        <v>64</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <v>0.68095899999999998</v>
+      </c>
+      <c r="F87">
+        <v>0.69272599999999995</v>
+      </c>
+      <c r="G87">
+        <v>0.69733100000000003</v>
+      </c>
+      <c r="H87">
+        <v>0.69836799999999999</v>
+      </c>
+      <c r="I87">
+        <v>0.69530700000000001</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="2"/>
+        <v>0.69293820000000006</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B88" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C88">
+        <v>64</v>
+      </c>
+      <c r="D88">
+        <v>5</v>
+      </c>
+      <c r="E88">
+        <v>0.697824</v>
+      </c>
+      <c r="F88">
+        <v>0.71689599999999998</v>
+      </c>
+      <c r="G88">
+        <v>0.72333800000000004</v>
+      </c>
+      <c r="H88">
+        <v>0.72910399999999997</v>
+      </c>
+      <c r="I88">
+        <v>0.72910399999999997</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="2"/>
+        <v>0.71925320000000004</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="56" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C89">
+        <v>86</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>0.70022700000000004</v>
+      </c>
+      <c r="F89">
+        <v>0.72020099999999998</v>
+      </c>
+      <c r="G89">
+        <v>0.71912200000000004</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="2"/>
+        <v>0.71318333333333328</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M89">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="56" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C90">
+        <v>96</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>0.69025599999999998</v>
+      </c>
+      <c r="F90">
+        <v>0.70514100000000002</v>
+      </c>
+      <c r="G90">
+        <v>0.71001999999999998</v>
+      </c>
+      <c r="H90">
+        <v>0.71414599999999995</v>
+      </c>
+      <c r="I90">
+        <v>0.71295600000000003</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="2"/>
+        <v>0.70650380000000002</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M90">
+        <v>0.70799999999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B91" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C91">
+        <v>96</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91">
+        <v>0.68267100000000003</v>
+      </c>
+      <c r="F91">
+        <v>0.69822499999999998</v>
+      </c>
+      <c r="G91">
+        <v>0.69930700000000001</v>
+      </c>
+      <c r="H91">
+        <v>0.70250299999999999</v>
+      </c>
+      <c r="I91">
+        <v>0.70250299999999999</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="2"/>
+        <v>0.69704180000000004</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software\python\workground\tweet_sentiment_extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F660D6-A95E-4790-939E-D5A14120852B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18914D79-419C-421D-B6A6-AE78E5F14E1C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CFBD6B1C-90EE-407F-934E-9DA405374D61}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="63">
   <si>
     <t>bert_case</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,70 @@
   </si>
   <si>
     <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 3.focal loss 4.使用logit比较 5.data argumentation(仅仅补充头部和尾部信息)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 3.focal loss 4.使用logit比较 5.调整模型结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 3.focal loss 4.使用logit比较 5.KS loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neg_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 4.使用logit比较 5.KS loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 4.使用logit比较 5.正则化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 4.使用logit比较 5.attention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 4.使用logit比较 5.加入一些新数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 3.focal loss 4.使用logit比较 5.加入sentiment loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 3.focal loss 4.使用logit比较 5.train预处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 3.focal loss 4.使用logit比较 5.去除头尾不完整的selected_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 3.focal loss 4.使用logit比较 5.去除停用词，url和html（需要先补充开头和结尾）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.首先要分成两个输入句子，利用同一个batch里面进行随机id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.两个句子进行不同层的合成，得到新生成的句子和mixed_target</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A312599-9CE1-4A90-98DB-8FC6E4291EC3}">
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2401,7 +2465,7 @@
         <v>0.65056899999999995</v>
       </c>
       <c r="J86">
-        <f t="shared" ref="J86:J91" si="2">AVERAGE(E86:I86)</f>
+        <f t="shared" ref="J86:J93" si="2">AVERAGE(E86:I86)</f>
         <v>0.65063799999999994</v>
       </c>
       <c r="K86">
@@ -2607,6 +2671,887 @@
       </c>
       <c r="L91" s="4" t="s">
         <v>37</v>
+      </c>
+      <c r="M91">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B93" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C93">
+        <v>96</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93">
+        <v>0.68260699999999996</v>
+      </c>
+      <c r="F93">
+        <v>0.70000700000000005</v>
+      </c>
+      <c r="G93">
+        <v>0.69898499999999997</v>
+      </c>
+      <c r="H93">
+        <v>0.69723500000000005</v>
+      </c>
+      <c r="I93">
+        <v>0.70294199999999996</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="2"/>
+        <v>0.69635519999999995</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C96">
+        <v>96</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+      <c r="E96">
+        <v>0.68463799999999997</v>
+      </c>
+      <c r="F96">
+        <v>0.69538199999999994</v>
+      </c>
+      <c r="G96">
+        <v>0.69996899999999995</v>
+      </c>
+      <c r="H96">
+        <v>0.70398499999999997</v>
+      </c>
+      <c r="I96">
+        <v>0.70213400000000004</v>
+      </c>
+      <c r="J96">
+        <f>AVERAGE(E96:I96)</f>
+        <v>0.6972216</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B97" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C97">
+        <v>96</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97">
+        <v>0.68453399999999998</v>
+      </c>
+      <c r="F97">
+        <v>0.70168200000000003</v>
+      </c>
+      <c r="G97">
+        <v>0.69438500000000003</v>
+      </c>
+      <c r="H97">
+        <v>0.70430300000000001</v>
+      </c>
+      <c r="I97">
+        <v>0.704488</v>
+      </c>
+      <c r="J97">
+        <f>AVERAGE(E97:I97)</f>
+        <v>0.69787840000000001</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+      <c r="N97">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B98" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C98">
+        <v>96</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+      <c r="E98">
+        <v>0.680589</v>
+      </c>
+      <c r="F98">
+        <v>0.69967800000000002</v>
+      </c>
+      <c r="G98">
+        <v>0.70141299999999995</v>
+      </c>
+      <c r="H98">
+        <v>0.70056499999999999</v>
+      </c>
+      <c r="I98">
+        <v>0.70053100000000001</v>
+      </c>
+      <c r="J98">
+        <f>AVERAGE(E98:I98)</f>
+        <v>0.69655520000000004</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>3</v>
+      </c>
+      <c r="M98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B100" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C100">
+        <v>96</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>0.66029400000000005</v>
+      </c>
+      <c r="F100">
+        <v>0.68764700000000001</v>
+      </c>
+      <c r="G100">
+        <v>0.69425300000000001</v>
+      </c>
+      <c r="H100">
+        <v>0.69812099999999999</v>
+      </c>
+      <c r="I100">
+        <v>0.69457899999999995</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>0.70899999999999996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B101" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="C101">
+        <v>96</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101">
+        <v>0.63817999999999997</v>
+      </c>
+      <c r="F101">
+        <v>0.68989699999999998</v>
+      </c>
+      <c r="G101">
+        <v>0.68847800000000003</v>
+      </c>
+      <c r="H101">
+        <v>0.69539099999999998</v>
+      </c>
+      <c r="I101">
+        <v>0.70366799999999996</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B102" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C102">
+        <v>96</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>0.63995100000000005</v>
+      </c>
+      <c r="F102">
+        <v>0.67908000000000002</v>
+      </c>
+      <c r="G102">
+        <v>0.68514600000000003</v>
+      </c>
+      <c r="H102">
+        <v>0.68828599999999995</v>
+      </c>
+      <c r="I102">
+        <v>0.69041600000000003</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B104" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C104">
+        <v>96</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+      <c r="E104">
+        <v>0.67060900000000001</v>
+      </c>
+      <c r="F104">
+        <v>0.69325199999999998</v>
+      </c>
+      <c r="G104">
+        <v>0.68775200000000003</v>
+      </c>
+      <c r="H104">
+        <v>0.69574199999999997</v>
+      </c>
+      <c r="I104">
+        <v>0.69632000000000005</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B105" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C105">
+        <v>96</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105">
+        <v>0.63066800000000001</v>
+      </c>
+      <c r="F105">
+        <v>0.68349800000000005</v>
+      </c>
+      <c r="G105">
+        <v>0.69189500000000004</v>
+      </c>
+      <c r="H105">
+        <v>0.69530000000000003</v>
+      </c>
+      <c r="I105">
+        <v>0.69540299999999999</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>0.5</v>
+      </c>
+      <c r="M105">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B106" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C106">
+        <v>96</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+      <c r="E106">
+        <v>0.629301</v>
+      </c>
+      <c r="F106">
+        <v>0.68383799999999995</v>
+      </c>
+      <c r="G106">
+        <v>0.68810899999999997</v>
+      </c>
+      <c r="H106">
+        <v>0.690137</v>
+      </c>
+      <c r="I106">
+        <v>0.69481000000000004</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>0.1</v>
+      </c>
+      <c r="M106">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B107" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C107">
+        <v>96</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107">
+        <v>0.66692700000000005</v>
+      </c>
+      <c r="F107">
+        <v>0.68341700000000005</v>
+      </c>
+      <c r="G107">
+        <v>0.69211299999999998</v>
+      </c>
+      <c r="H107">
+        <v>0.69688099999999997</v>
+      </c>
+      <c r="I107">
+        <v>0.69802699999999995</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>3</v>
+      </c>
+      <c r="M107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B108" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C108">
+        <v>96</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108">
+        <v>0.63596200000000003</v>
+      </c>
+      <c r="F108">
+        <v>0.68952199999999997</v>
+      </c>
+      <c r="G108">
+        <v>0.69290499999999999</v>
+      </c>
+      <c r="H108">
+        <v>0.68934300000000004</v>
+      </c>
+      <c r="I108">
+        <v>0.69425199999999998</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>4</v>
+      </c>
+      <c r="M108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L109" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="42" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B110" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C110">
+        <v>96</v>
+      </c>
+      <c r="D110">
+        <v>5</v>
+      </c>
+      <c r="E110">
+        <v>0.68272900000000003</v>
+      </c>
+      <c r="F110">
+        <v>0.69875299999999996</v>
+      </c>
+      <c r="G110">
+        <v>0.69759499999999997</v>
+      </c>
+      <c r="H110">
+        <v>0.70182900000000004</v>
+      </c>
+      <c r="I110">
+        <v>0.702268</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B111" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C111">
+        <v>96</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+      <c r="E111">
+        <v>0.68927700000000003</v>
+      </c>
+      <c r="F111">
+        <v>0.694017</v>
+      </c>
+      <c r="G111">
+        <v>0.701569</v>
+      </c>
+      <c r="H111">
+        <v>0.69913700000000001</v>
+      </c>
+      <c r="I111">
+        <v>0.70100700000000005</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B113" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C113">
+        <v>96</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+      <c r="E113">
+        <v>0.68611200000000006</v>
+      </c>
+      <c r="F113">
+        <v>0.69775600000000004</v>
+      </c>
+      <c r="G113">
+        <v>0.69911999999999996</v>
+      </c>
+      <c r="H113">
+        <v>0.70158299999999996</v>
+      </c>
+      <c r="I113">
+        <v>0.70145000000000002</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" s="3"/>
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B115" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C115">
+        <v>96</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+      <c r="E115">
+        <v>0.68778600000000001</v>
+      </c>
+      <c r="F115">
+        <v>0.69211999999999996</v>
+      </c>
+      <c r="G115">
+        <v>0.69365399999999999</v>
+      </c>
+      <c r="H115">
+        <v>0.69686899999999996</v>
+      </c>
+      <c r="I115">
+        <v>0.70031600000000005</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E116">
+        <v>0.68767500000000004</v>
+      </c>
+      <c r="F116">
+        <v>0.69884100000000005</v>
+      </c>
+      <c r="G116">
+        <v>0.69889900000000005</v>
+      </c>
+      <c r="H116">
+        <v>0.694631</v>
+      </c>
+      <c r="I116">
+        <v>0.69178799999999996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B118" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C118">
+        <v>96</v>
+      </c>
+      <c r="D118">
+        <v>5</v>
+      </c>
+      <c r="E118">
+        <v>0.65204700000000004</v>
+      </c>
+      <c r="F118">
+        <v>0.67146499999999998</v>
+      </c>
+      <c r="G118">
+        <v>0.67650706999999999</v>
+      </c>
+      <c r="H118">
+        <v>0.67664500000000005</v>
+      </c>
+      <c r="I118">
+        <v>0.677589</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E119">
+        <v>0.65369200000000005</v>
+      </c>
+      <c r="F119">
+        <v>0.67112300000000003</v>
+      </c>
+      <c r="G119">
+        <v>0.67668499999999998</v>
+      </c>
+      <c r="H119">
+        <v>0.66938500000000001</v>
+      </c>
+      <c r="I119">
+        <v>0.67758700000000005</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E121">
+        <v>0.68927899999999998</v>
+      </c>
+      <c r="F121">
+        <v>0.68321100000000001</v>
+      </c>
+      <c r="G121">
+        <v>0.69684000000000001</v>
+      </c>
+      <c r="H121">
+        <v>0.70110499999999998</v>
+      </c>
+      <c r="I121">
+        <v>0.69979800000000003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E122">
+        <v>0.69069999999999998</v>
+      </c>
+      <c r="F122">
+        <v>0.69069999999999998</v>
+      </c>
+      <c r="G122">
+        <v>0.70028699999999999</v>
+      </c>
+      <c r="H122">
+        <v>0.69817200000000001</v>
+      </c>
+      <c r="I122">
+        <v>0.70142800000000005</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B123" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C123">
+        <v>96</v>
+      </c>
+      <c r="D123">
+        <v>5</v>
+      </c>
+      <c r="E123">
+        <v>0.68034600000000001</v>
+      </c>
+      <c r="F123">
+        <v>0.69744300000000004</v>
+      </c>
+      <c r="G123">
+        <v>0.69964199999999999</v>
+      </c>
+      <c r="H123">
+        <v>0.70446299999999995</v>
+      </c>
+      <c r="I123">
+        <v>0.70284500000000005</v>
+      </c>
+      <c r="L123">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="3"/>
+      <c r="E124">
+        <v>0.68386400000000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J126" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E127">
+        <v>0.683338</v>
+      </c>
+      <c r="F127">
+        <v>0.70261300000000004</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E128">
+        <v>0.68495499999999998</v>
+      </c>
+      <c r="F128">
+        <v>0.690218</v>
+      </c>
+      <c r="G128">
+        <v>0.70117600000000002</v>
+      </c>
+      <c r="H128">
+        <v>0.70104699999999998</v>
+      </c>
+      <c r="I128">
+        <v>0.69817200000000001</v>
+      </c>
+      <c r="J128">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E129">
+        <v>0.67650299999999997</v>
+      </c>
+      <c r="F129">
+        <v>0.69156700000000004</v>
+      </c>
+      <c r="G129">
+        <v>0.69889500000000004</v>
+      </c>
+      <c r="H129">
+        <v>0.69988099999999998</v>
+      </c>
+      <c r="J129">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E130">
+        <v>0.68344899999999997</v>
+      </c>
+      <c r="F130">
+        <v>0.69562500000000005</v>
+      </c>
+      <c r="G130">
+        <v>0.69758500000000001</v>
+      </c>
+      <c r="H130">
+        <v>0.69891700000000001</v>
+      </c>
+      <c r="I130">
+        <v>0.69801999999999997</v>
+      </c>
+      <c r="J130">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B132" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C132">
+        <v>96</v>
+      </c>
+      <c r="D132">
+        <v>5</v>
+      </c>
+      <c r="E132">
+        <v>0.690052</v>
+      </c>
+      <c r="F132">
+        <v>0.69357400000000002</v>
+      </c>
+      <c r="G132">
+        <v>0.70528900000000005</v>
+      </c>
+      <c r="H132">
+        <v>0.70104900000000003</v>
+      </c>
+      <c r="I132">
+        <v>0.70317399999999997</v>
+      </c>
+      <c r="K132">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software\python\workground\tweet_sentiment_extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18914D79-419C-421D-B6A6-AE78E5F14E1C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6D102E-998B-4C08-A604-4348EFA18119}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CFBD6B1C-90EE-407F-934E-9DA405374D61}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="122">
   <si>
     <t>bert_case</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,6 +282,238 @@
   </si>
   <si>
     <t>2.两个句子进行不同层的合成，得到新生成的句子和mixed_target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 3.focal loss 4.使用logit比较 5. adversarial training（修改BERT的embedding）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 3.focal loss 4.使用logit比较 5. virtual adversarial training（修改BERT的embedding）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_mult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epoch2</t>
+  </si>
+  <si>
+    <t>epoch3</t>
+  </si>
+  <si>
+    <t>epoch4</t>
+  </si>
+  <si>
+    <t>epoch5</t>
+  </si>
+  <si>
+    <t>有预模型加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. roberta + 5-fold（使用别人的分词工具）+ conv1d（使用最后两层layer） 2.使用learing schedule 3.focal loss 4.使用logit比较 （使用了neural的全部词语）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-fold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-fold（预加载）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adversarial+dropout（在adversarial中仅仅使用了0.1的dropout）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropout + adversarial（在adversarial中使用了0.2的dropout）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label smoothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.dropout + adversarial（在adversarial中使用了0.2的dropout）2.重新训练：virtual adversial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropout + label smooth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.dropout + adversarial（在adversarial中使用了0.2的dropout）2.重新训练：adversial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropout + adversarial（在adversarial中使用了0.2的dropout）+ 补充开头和结尾数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropout + adversarial（在adversarial中使用了0.2的dropout）+ 补充开头和结尾数据+less than 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chesechrome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firefox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropout + adversarial（在adversarial中使用了0.2的dropout）+word counts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightgbm + word counts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加了过滤规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lgb1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lgb2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightgbm + word counts + 情感标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightgbm + word counts + 情感标签+考虑neutral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightgbm + word counts + 情感标签（去除neutral）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不加过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>softmax+过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用0补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤+用0补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用0补充+去掉english</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_roberta_base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chrome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roberta-dropout02-adversarial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stacking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-fold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_adversarial_training2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adversarial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use new data: 别人的dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adversial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以拿到0.15的分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roberta_768</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adversial_768</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load_model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_roberta_base_768</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_roberta_base_three</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_roberta_base_715</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调节过后，拿0.715的模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf_roberta_base_0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,15 +931,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A312599-9CE1-4A90-98DB-8FC6E4291EC3}">
-  <dimension ref="A1:O140"/>
+  <dimension ref="A1:O233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.75" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2588,7 +2823,7 @@
       <c r="L89" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M89">
+      <c r="M89" s="10">
         <v>0.71199999999999997</v>
       </c>
     </row>
@@ -3514,7 +3749,7 @@
     </row>
     <row r="132" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="B132" s="2">
         <v>4.0000000000000003E-5</v>
@@ -3544,14 +3779,1540 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="56" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B135" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C135">
+        <v>32</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+      <c r="E135">
+        <v>0.691195</v>
+      </c>
+      <c r="F135">
+        <v>0.69258900000000001</v>
+      </c>
+      <c r="G135">
+        <v>0.69608199999999998</v>
+      </c>
+      <c r="H135">
+        <v>0.693129</v>
+      </c>
+      <c r="I135">
+        <v>0.70054499999999997</v>
+      </c>
+      <c r="J135">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B136" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C136">
+        <v>32</v>
+      </c>
+      <c r="D136">
+        <v>5</v>
+      </c>
+      <c r="E136">
+        <v>0.68267500000000003</v>
+      </c>
+      <c r="F136">
+        <v>0.69604900000000003</v>
+      </c>
+      <c r="G136">
+        <v>0.69259499999999996</v>
+      </c>
+      <c r="H136">
+        <v>0.69847800000000004</v>
+      </c>
+      <c r="I136">
+        <v>0.69831200000000004</v>
+      </c>
+      <c r="J136">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B137" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C137">
+        <v>32</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+      <c r="E137">
+        <v>0.69044499999999998</v>
+      </c>
+      <c r="F137">
+        <v>0.69934499999999999</v>
+      </c>
+      <c r="G137">
+        <v>0.69813499999999995</v>
+      </c>
+      <c r="J137">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B138" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C138">
+        <v>32</v>
+      </c>
+      <c r="D138">
+        <v>5</v>
+      </c>
+      <c r="E138">
+        <v>0.69123100000000004</v>
+      </c>
+      <c r="F138" s="10">
+        <v>0.70410600000000001</v>
+      </c>
+      <c r="G138">
+        <v>0.70067900000000005</v>
+      </c>
+      <c r="H138">
+        <v>0.69969300000000001</v>
+      </c>
+      <c r="I138">
+        <v>0.70139200000000002</v>
+      </c>
+      <c r="J138">
+        <v>0.02</v>
+      </c>
+    </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+      <c r="B139" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C139">
+        <v>32</v>
+      </c>
+      <c r="D139">
+        <v>5</v>
+      </c>
+      <c r="E139">
+        <v>0.69223299999999999</v>
+      </c>
+      <c r="F139">
+        <v>0.69611199999999995</v>
+      </c>
+      <c r="G139">
+        <v>0.69742099999999996</v>
+      </c>
+      <c r="H139">
+        <v>0.69352400000000003</v>
+      </c>
+      <c r="I139">
+        <v>0.69737199999999999</v>
+      </c>
+      <c r="J139">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B140" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C140">
+        <v>32</v>
+      </c>
+      <c r="D140">
+        <v>5</v>
+      </c>
+      <c r="E140">
+        <v>0.69194</v>
+      </c>
+      <c r="F140">
+        <v>0.69911900000000005</v>
+      </c>
+      <c r="G140">
+        <v>0.69904999999999995</v>
+      </c>
+      <c r="H140">
+        <v>0.69833400000000001</v>
+      </c>
+      <c r="I140">
+        <v>0.69621200000000005</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B141" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C141">
+        <v>32</v>
+      </c>
+      <c r="D141">
+        <v>5</v>
+      </c>
+      <c r="E141">
+        <v>0.68021200000000004</v>
+      </c>
+      <c r="F141">
+        <v>0.693245</v>
+      </c>
+      <c r="G141">
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="H141">
+        <v>0.69635100000000005</v>
+      </c>
+      <c r="I141">
+        <v>0.69830199999999998</v>
+      </c>
+      <c r="J141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B142" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C142">
+        <v>32</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+      <c r="E142">
+        <v>0.68895600000000001</v>
+      </c>
+      <c r="F142">
+        <v>0.69680699999999995</v>
+      </c>
+      <c r="G142">
+        <v>0.69248699999999996</v>
+      </c>
+      <c r="H142">
+        <v>0.70210600000000001</v>
+      </c>
+      <c r="I142">
+        <v>0.70037199999999999</v>
+      </c>
+      <c r="J142">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B143" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C143">
+        <v>32</v>
+      </c>
+      <c r="D143">
+        <v>5</v>
+      </c>
+      <c r="E143">
+        <v>0.68110499999999996</v>
+      </c>
+      <c r="F143">
+        <v>0.69494</v>
+      </c>
+      <c r="G143">
+        <v>0.70221299999999998</v>
+      </c>
+      <c r="H143">
+        <v>0.702214</v>
+      </c>
+      <c r="I143">
+        <v>0.69735199999999997</v>
+      </c>
+      <c r="J143">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B144" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C144">
+        <v>32</v>
+      </c>
+      <c r="D144">
+        <v>5</v>
+      </c>
+      <c r="E144">
+        <v>0.68708400000000003</v>
+      </c>
+      <c r="F144">
+        <v>0.69723599999999997</v>
+      </c>
+      <c r="G144">
+        <v>0.69840199999999997</v>
+      </c>
+      <c r="H144">
+        <v>0.70319100000000001</v>
+      </c>
+      <c r="I144">
+        <v>0.70083099999999998</v>
+      </c>
+      <c r="J144">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" ht="56" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B146" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C146">
+        <v>32</v>
+      </c>
+      <c r="D146">
+        <v>5</v>
+      </c>
+      <c r="E146">
+        <v>0.68937899999999996</v>
+      </c>
+      <c r="F146">
+        <v>0.693527</v>
+      </c>
+      <c r="G146" s="10">
+        <v>0.70754300000000003</v>
+      </c>
+      <c r="H146">
+        <v>0.70210899999999998</v>
+      </c>
+      <c r="I146">
+        <v>0.69777500000000003</v>
+      </c>
+      <c r="J146">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B147" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C147">
+        <v>32</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>0.69099900000000003</v>
+      </c>
+      <c r="F147">
+        <v>0.69841600000000004</v>
+      </c>
+      <c r="G147">
+        <v>0.69870500000000002</v>
+      </c>
+      <c r="J147">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B148" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C148">
+        <v>32</v>
+      </c>
+      <c r="D148">
+        <v>3</v>
+      </c>
+      <c r="E148">
+        <v>0.69464899999999996</v>
+      </c>
+      <c r="F148">
+        <v>0.70039099999999999</v>
+      </c>
+      <c r="G148">
+        <v>0.70216999999999996</v>
+      </c>
+      <c r="J148">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B149" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C149">
+        <v>32</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149">
+        <v>0.68831600000000004</v>
+      </c>
+      <c r="F149">
+        <v>0.69247599999999998</v>
+      </c>
+      <c r="G149">
+        <v>0.69315199999999999</v>
+      </c>
+      <c r="J149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B150" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="C150">
+        <v>32</v>
+      </c>
+      <c r="D150">
+        <v>3</v>
+      </c>
+      <c r="E150">
+        <v>0.69843699999999997</v>
+      </c>
+      <c r="F150">
+        <v>0.69316800000000001</v>
+      </c>
+      <c r="G150">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="J150">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B151" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C151">
+        <v>32</v>
+      </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
+      <c r="E151">
+        <v>0.69980399999999998</v>
+      </c>
+      <c r="F151">
+        <v>0.70215099999999997</v>
+      </c>
+      <c r="G151">
+        <v>0.698353</v>
+      </c>
+      <c r="J151">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B152" s="2">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="C152">
+        <v>32</v>
+      </c>
+      <c r="D152">
+        <v>3</v>
+      </c>
+      <c r="E152">
+        <v>0.70319699999999996</v>
+      </c>
+      <c r="F152">
+        <v>0.70197299999999996</v>
+      </c>
+      <c r="G152">
+        <v>0.70066600000000001</v>
+      </c>
+      <c r="J152">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B153" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C153">
+        <v>32</v>
+      </c>
+      <c r="D153">
+        <v>3</v>
+      </c>
+      <c r="E153">
+        <v>0.70366899999999999</v>
+      </c>
+      <c r="F153" s="10">
+        <v>0.70412399999999997</v>
+      </c>
+      <c r="G153">
+        <v>0.70365100000000003</v>
+      </c>
+      <c r="J153">
+        <v>0.02</v>
+      </c>
+      <c r="K153">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="L153">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B154" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C154">
+        <v>32</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>0.70215099999999997</v>
+      </c>
+      <c r="F154">
+        <v>0.70335899999999996</v>
+      </c>
+      <c r="J154">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B155" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C155">
+        <v>32</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155">
+        <v>0.70377199999999995</v>
+      </c>
+      <c r="F155">
+        <v>0.70224200000000003</v>
+      </c>
+      <c r="J155">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B158" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B159">
+        <v>0.77010000000000001</v>
+      </c>
+      <c r="C159">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>0.76650700000000005</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>0.76214099999999996</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>0.70833400000000002</v>
+      </c>
+      <c r="C162">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B164" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>0.70527532536889204</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>0.1</v>
+      </c>
+      <c r="C166">
+        <v>0.70796388643671604</v>
+      </c>
+      <c r="D166">
+        <v>0.70899999999999996</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>0.2</v>
+      </c>
+      <c r="C167">
+        <v>0.706825586095845</v>
+      </c>
+      <c r="D167">
+        <v>0.71</v>
+      </c>
+      <c r="E167">
+        <v>0.70803350461242598</v>
+      </c>
+      <c r="F167" s="7">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>0.3</v>
+      </c>
+      <c r="C168">
+        <v>0.65013226331474105</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>0.4</v>
+      </c>
+      <c r="C169">
+        <v>0.70752509909357697</v>
+      </c>
+      <c r="E169">
+        <v>0.70904792781631498</v>
+      </c>
+      <c r="F169">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>0.5</v>
+      </c>
+      <c r="C170">
+        <v>0.65005840357465206</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>76</v>
+      </c>
+      <c r="B172">
+        <v>0.4</v>
+      </c>
+      <c r="E172">
+        <v>0.70807852723959197</v>
+      </c>
+      <c r="F172">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>77</v>
+      </c>
+      <c r="B173">
+        <v>0.2</v>
+      </c>
+      <c r="C173">
+        <v>0.70649528708279996</v>
+      </c>
+      <c r="E173">
+        <v>0.70863401074591004</v>
+      </c>
+      <c r="F173" s="7">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B175" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>77</v>
+      </c>
+      <c r="B176">
+        <v>0.2</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0.70863401074591004</v>
+      </c>
+      <c r="F176">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>80</v>
+      </c>
+      <c r="B177">
+        <v>0.2</v>
+      </c>
+      <c r="C177">
+        <v>0.15</v>
+      </c>
+      <c r="D177">
+        <v>0.70645845144350505</v>
+      </c>
+      <c r="E177">
+        <v>0.70854873724295997</v>
+      </c>
+      <c r="F177">
+        <v>0.71299999999999997</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B178">
+        <v>0.2</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0.70867792310574795</v>
+      </c>
+      <c r="F178">
+        <v>0.71299999999999997</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B179">
+        <v>0.2</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0.70929366756522005</v>
+      </c>
+      <c r="F179">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="G179" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B180">
+        <v>0.2</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0.70821998303949296</v>
+      </c>
+      <c r="F180">
+        <v>0.71299999999999997</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>0.1</v>
+      </c>
+      <c r="E181">
+        <v>0.70819333613093305</v>
+      </c>
+      <c r="F181">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B182">
+        <v>0.2</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0.70847060789499205</v>
+      </c>
+      <c r="F182">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>77</v>
+      </c>
+      <c r="B183">
+        <v>0.3</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0.70894502604953902</v>
+      </c>
+      <c r="F183" s="7">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="G183" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>0.4</v>
+      </c>
+      <c r="E184">
+        <v>0.70861029876769399</v>
+      </c>
+      <c r="F184">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="G184" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B186">
+        <v>0.3</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0.70852834138714205</v>
+      </c>
+      <c r="F186">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B187">
+        <v>0.3</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0.70172020088612197</v>
+      </c>
+      <c r="F187">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B190" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>88</v>
+      </c>
+      <c r="B191">
+        <v>0.01</v>
+      </c>
+      <c r="C191">
+        <v>-1</v>
+      </c>
+      <c r="D191" t="s">
+        <v>91</v>
+      </c>
+      <c r="E191">
+        <v>1.41574</v>
+      </c>
+      <c r="F191">
+        <v>2.9539900000000001</v>
+      </c>
+      <c r="G191">
+        <v>0.59252539387324998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>0.01</v>
+      </c>
+      <c r="C192">
+        <v>10</v>
+      </c>
+      <c r="D192" t="s">
+        <v>91</v>
+      </c>
+      <c r="E192">
+        <v>1.3913800000000001</v>
+      </c>
+      <c r="F192">
+        <v>2.94123</v>
+      </c>
+      <c r="G192">
+        <v>0.59870355195664704</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>0.01</v>
+      </c>
+      <c r="C193">
+        <v>10</v>
+      </c>
+      <c r="D193" t="s">
+        <v>101</v>
+      </c>
+      <c r="E193">
+        <v>1.3853599999999999</v>
+      </c>
+      <c r="F193">
+        <v>2.9610799999999999</v>
+      </c>
+      <c r="G193">
+        <v>0.60066778547872801</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>94</v>
+      </c>
+      <c r="B195">
+        <v>0.01</v>
+      </c>
+      <c r="C195">
+        <v>10</v>
+      </c>
+      <c r="D195" t="s">
+        <v>91</v>
+      </c>
+      <c r="E195">
+        <v>1.3915500000000001</v>
+      </c>
+      <c r="F195">
+        <v>2.9270299999999998</v>
+      </c>
+      <c r="G195">
+        <v>0.59481631646178501</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>0.01</v>
+      </c>
+      <c r="C196">
+        <v>20</v>
+      </c>
+      <c r="D196" t="s">
+        <v>91</v>
+      </c>
+      <c r="E196">
+        <v>1.40649</v>
+      </c>
+      <c r="F196">
+        <v>2.95133</v>
+      </c>
+      <c r="G196">
+        <v>0.59632427523787102</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>0.01</v>
+      </c>
+      <c r="C197">
+        <v>20</v>
+      </c>
+      <c r="D197" t="s">
+        <v>98</v>
+      </c>
+      <c r="E197">
+        <v>1.6006199999999999</v>
+      </c>
+      <c r="F197">
+        <v>3.1255199999999999</v>
+      </c>
+      <c r="G197">
+        <v>0.56656198511509204</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>0.01</v>
+      </c>
+      <c r="C198">
+        <v>20</v>
+      </c>
+      <c r="D198" t="s">
+        <v>100</v>
+      </c>
+      <c r="E198">
+        <v>1.38944</v>
+      </c>
+      <c r="F198">
+        <v>2.7017199999999999</v>
+      </c>
+      <c r="G198">
+        <v>0.606680054814555</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>0.01</v>
+      </c>
+      <c r="C199">
+        <v>10</v>
+      </c>
+      <c r="D199" t="s">
+        <v>99</v>
+      </c>
+      <c r="G199">
+        <v>0.60978451868949601</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>0.01</v>
+      </c>
+      <c r="C200">
+        <v>10</v>
+      </c>
+      <c r="D200" t="s">
+        <v>101</v>
+      </c>
+      <c r="E200">
+        <v>1.3562000000000001</v>
+      </c>
+      <c r="F200">
+        <v>2.68526</v>
+      </c>
+      <c r="G200" s="7">
+        <v>0.61042290713886904</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D201" t="s">
+        <v>101</v>
+      </c>
+      <c r="E201">
+        <v>1.3798600000000001</v>
+      </c>
+      <c r="F201">
+        <v>2.9334699999999998</v>
+      </c>
+      <c r="G201">
+        <v>0.594727476568081</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>96</v>
+      </c>
+      <c r="B203">
+        <v>0.01</v>
+      </c>
+      <c r="C203">
+        <v>10</v>
+      </c>
+      <c r="D203" t="s">
+        <v>91</v>
+      </c>
+      <c r="E203">
+        <v>1.5418799999999999</v>
+      </c>
+      <c r="F203">
+        <v>3.1425399999999999</v>
+      </c>
+      <c r="G203">
+        <v>0.59272967376906305</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>95</v>
+      </c>
+      <c r="B204">
+        <v>0.01</v>
+      </c>
+      <c r="C204">
+        <v>10</v>
+      </c>
+      <c r="D204" t="s">
+        <v>91</v>
+      </c>
+      <c r="E204">
+        <v>1.3805099999999999</v>
+      </c>
+      <c r="F204">
+        <v>2.25814</v>
+      </c>
+      <c r="G204">
+        <v>0.59620518872625905</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <v>0.01</v>
+      </c>
+      <c r="C205">
+        <v>10</v>
+      </c>
+      <c r="D205" t="s">
+        <v>97</v>
+      </c>
+      <c r="E205">
+        <v>2.2347800000000002</v>
+      </c>
+      <c r="F205">
+        <v>2.2347800000000002</v>
+      </c>
+      <c r="G205">
+        <v>0.600832919905818</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B206">
+        <v>0.01</v>
+      </c>
+      <c r="C206">
+        <v>10</v>
+      </c>
+      <c r="D206" t="s">
+        <v>101</v>
+      </c>
+      <c r="E206">
+        <v>1.3380399999999999</v>
+      </c>
+      <c r="F206">
+        <v>1.3996999999999999</v>
+      </c>
+      <c r="G206">
+        <v>0.61287213578731303</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A211" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C211">
+        <v>0.70796388643671604</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F211" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G211" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H211" s="7">
+        <v>0.70894502604953902</v>
+      </c>
+      <c r="J211">
+        <v>0.71335709137370795</v>
+      </c>
+      <c r="K211">
+        <v>0.71036220043877696</v>
+      </c>
+      <c r="L211">
+        <v>0.71669119284351002</v>
+      </c>
+      <c r="M211">
+        <v>0.71336992352362605</v>
+      </c>
+      <c r="N211">
+        <v>0.71475780509109399</v>
+      </c>
+      <c r="O211">
+        <v>0.71160433497153197</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A212" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C212">
+        <v>0.70649528708279996</v>
+      </c>
+      <c r="D212" t="s">
+        <v>111</v>
+      </c>
+      <c r="E212" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F212" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G212" s="7"/>
+      <c r="H212" s="7">
+        <v>0.70859340507102597</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A213" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C213">
+        <v>0.70894502604953902</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A214" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C214">
+        <v>0.70823994419622505</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K214" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A215" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C215">
+        <v>0.70580712596797801</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J215">
+        <v>0.71340406019415403</v>
+      </c>
+      <c r="K215">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I216" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J216">
+        <v>0.71338167403562802</v>
+      </c>
+      <c r="K216">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B217" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C218">
+        <v>0.71004817985328905</v>
+      </c>
+      <c r="D218">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B221" t="s">
+        <v>108</v>
+      </c>
+      <c r="C221" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="D221">
+        <v>0.2</v>
+      </c>
+      <c r="F221">
+        <v>0.70117210381103501</v>
+      </c>
+      <c r="G221">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B222" t="s">
+        <v>9</v>
+      </c>
+      <c r="C222" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="D222">
+        <v>0.2</v>
+      </c>
+      <c r="E222">
+        <v>0.711837436716526</v>
+      </c>
+      <c r="F222">
+        <v>0.704062802510112</v>
+      </c>
+      <c r="G222">
+        <v>0.71299999999999997</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B225" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B226">
+        <v>0.70062787440345597</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E226">
+        <v>0.70841754327377604</v>
+      </c>
+      <c r="F226">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="H226" s="2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I226">
+        <v>0.71125111198338198</v>
+      </c>
+      <c r="J226">
+        <v>0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B227">
+        <v>0.70117210381103501</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E227">
+        <v>0.70676804848651897</v>
+      </c>
+      <c r="F227">
+        <v>0.71</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B230" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B231">
+        <v>0.949959</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B232">
+        <v>0.94998099999999996</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B233">
+        <v>0.95001199999999997</v>
       </c>
     </row>
   </sheetData>
